--- a/results with graphs.xlsx
+++ b/results with graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fairouz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fairouz\Desktop\cognitive project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCE4A3-3063-4341-A4E8-0EC96F891FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C836B-2840-4736-A5CD-4D5EA796AFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EFD26FD0-07EC-0644-AECA-4418AC46A54A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="186">
   <si>
     <t>Subcategories</t>
   </si>
@@ -585,6 +585,37 @@
   </si>
   <si>
     <t>10f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUAP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTD-NB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTD-SVM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMD-V0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMD-V1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMD-V2
+</t>
   </si>
 </sst>
 </file>
@@ -833,7 +864,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Random
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -905,7 +936,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>BUAP
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -977,7 +1008,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-NB
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1049,7 +1080,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-SVM
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,7 +1152,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V0
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1193,7 +1224,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V1
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,7 +1296,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V2
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,7 +1369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Llama 2 MaxDiff</c:v>
+                  <c:v>Llama 2 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1694,7 +1725,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Random
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1808,7 +1839,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>BUAP
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,7 +1953,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-NB
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,7 +2067,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-SVM
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2150,7 +2181,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V0
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2264,7 +2295,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V1
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2378,7 +2409,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V2
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2491,7 +2522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Llama 2 MaxDiff</c:v>
+                  <c:v>Llama 2 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2726,6 +2757,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15884206795878933"/>
+          <c:y val="0.77276613018926676"/>
+          <c:w val="0.74125454591479412"/>
+          <c:h val="0.1810526928221162"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2878,7 +2919,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Random
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3004,7 +3045,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>BUAP
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3130,7 +3171,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-NB
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3256,7 +3297,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UTD-SVM
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3384,7 +3425,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V0
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3512,7 +3553,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V1
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3640,7 +3681,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UMD-V2
-MaxDiff</c:v>
+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3768,7 +3809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Llama 2 MaxDiff</c:v>
+                  <c:v>Llama 2 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4660,20 +4701,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4877,8 +4904,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4896,17 +4924,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
@@ -5074,7 +5103,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-423B-4B2E-BF2B-207A96CD8962}"/>
@@ -5096,17 +5124,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
@@ -5274,7 +5300,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-423B-4B2E-BF2B-207A96CD8962}"/>
@@ -5289,10 +5314,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="552904175"/>
         <c:axId val="494282415"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="552904175"/>
         <c:scaling>
@@ -5448,6 +5473,1284 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maxdiff scores: CONTRAST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$K$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$K$89:$K$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$L$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUAP
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$L$89:$L$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32.357142857142854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTD-NB
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$M$89:$M$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40.928571428571438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UTD-SVM
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$N$89:$N$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$N$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38.942857142857136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$O$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UMD-V0
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$O$89:$O$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$O$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38.271428571428565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$P$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UMD-V1
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$P$89:$P$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$P$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35.971428571428568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UMD-V2
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$Q$89:$Q$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$Q$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33.75714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$R$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Llama 2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$B$89:$B$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 CONTRAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 (2)'!$R$89:$R$92</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 (2)'!$R$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38.657142857142858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-80BF-42DA-9B30-CCA0EDB75A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="18973696"/>
+        <c:axId val="308033968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18973696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308033968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="308033968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18973696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5640,6 +6943,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7815,6 +9155,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8215,9 +10058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>161191</xdr:colOff>
+      <xdr:colOff>293077</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>4884</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8281,13 +10124,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>300403</xdr:colOff>
+      <xdr:colOff>315057</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>232997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>500673</xdr:colOff>
+      <xdr:colOff>515327</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>177312</xdr:rowOff>
     </xdr:to>
@@ -8317,13 +10160,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>268653</xdr:colOff>
+      <xdr:colOff>283306</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>83039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
+      <xdr:colOff>483576</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>22470</xdr:rowOff>
     </xdr:to>
@@ -8347,6 +10190,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400539</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>115765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>249116</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>55196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF1C098-B48A-A305-A410-CB90D376DFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8654,9 +10533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A8C6A9-729D-1346-9EE7-9CB9A898ACBA}">
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -13589,28 +15468,28 @@
         <v>106</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.6">
